--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H2">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I2">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J2">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.60048675479705</v>
+        <v>3.612892</v>
       </c>
       <c r="N2">
-        <v>3.60048675479705</v>
+        <v>10.838676</v>
       </c>
       <c r="O2">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="P2">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="Q2">
-        <v>5.194736770104738</v>
+        <v>5.343450407837333</v>
       </c>
       <c r="R2">
-        <v>5.194736770104738</v>
+        <v>48.091053670536</v>
       </c>
       <c r="S2">
-        <v>0.03449497925614162</v>
+        <v>0.03279631606873792</v>
       </c>
       <c r="T2">
-        <v>0.03449497925614162</v>
+        <v>0.03279631606873792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H3">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I3">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J3">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.89176684946478</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N3">
-        <v>7.89176684946478</v>
+        <v>23.79245</v>
       </c>
       <c r="O3">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="P3">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="Q3">
-        <v>11.38614143751214</v>
+        <v>11.72964083952222</v>
       </c>
       <c r="R3">
-        <v>11.38614143751214</v>
+        <v>105.5667675557</v>
       </c>
       <c r="S3">
-        <v>0.0756082030864014</v>
+        <v>0.07199262255368123</v>
       </c>
       <c r="T3">
-        <v>0.0756082030864014</v>
+        <v>0.07199262255368126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H4">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I4">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J4">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.3237095875727</v>
+        <v>4.358860666666668</v>
       </c>
       <c r="N4">
-        <v>4.3237095875727</v>
+        <v>13.076582</v>
       </c>
       <c r="O4">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="P4">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="Q4">
-        <v>6.238193529775764</v>
+        <v>6.446734584650224</v>
       </c>
       <c r="R4">
-        <v>6.238193529775764</v>
+        <v>58.02061126185201</v>
       </c>
       <c r="S4">
-        <v>0.04142391923375036</v>
+        <v>0.03956790629877387</v>
       </c>
       <c r="T4">
-        <v>0.04142391923375036</v>
+        <v>0.03956790629877387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H5">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I5">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J5">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.08475295147871</v>
+        <v>5.253011333333333</v>
       </c>
       <c r="N5">
-        <v>5.08475295147871</v>
+        <v>15.759034</v>
       </c>
       <c r="O5">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="P5">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="Q5">
-        <v>7.336217273609699</v>
+        <v>7.769179247947111</v>
       </c>
       <c r="R5">
-        <v>7.336217273609699</v>
+        <v>69.922613231524</v>
       </c>
       <c r="S5">
-        <v>0.04871520422903201</v>
+        <v>0.04768463048457092</v>
       </c>
       <c r="T5">
-        <v>0.04871520422903201</v>
+        <v>0.04768463048457093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H6">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I6">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J6">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.977534880105655</v>
+        <v>1.035612</v>
       </c>
       <c r="N6">
-        <v>0.977534880105655</v>
+        <v>3.106836</v>
       </c>
       <c r="O6">
-        <v>0.04468066844371075</v>
+        <v>0.04666770351444832</v>
       </c>
       <c r="P6">
-        <v>0.04468066844371075</v>
+        <v>0.04666770351444833</v>
       </c>
       <c r="Q6">
-        <v>1.410374966378958</v>
+        <v>1.531665315144</v>
       </c>
       <c r="R6">
-        <v>1.410374966378958</v>
+        <v>13.784987836296</v>
       </c>
       <c r="S6">
-        <v>0.009365412986583855</v>
+        <v>0.009400850752410482</v>
       </c>
       <c r="T6">
-        <v>0.009365412986583855</v>
+        <v>0.009400850752410485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H7">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I7">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J7">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.60048675479705</v>
+        <v>3.612892</v>
       </c>
       <c r="N7">
-        <v>3.60048675479705</v>
+        <v>10.838676</v>
       </c>
       <c r="O7">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="P7">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="Q7">
-        <v>13.86051136048265</v>
+        <v>13.98066606531467</v>
       </c>
       <c r="R7">
-        <v>13.86051136048265</v>
+        <v>125.825994587832</v>
       </c>
       <c r="S7">
-        <v>0.09203893729724524</v>
+        <v>0.08580866446463642</v>
       </c>
       <c r="T7">
-        <v>0.09203893729724524</v>
+        <v>0.08580866446463645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H8">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I8">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J8">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.89176684946478</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N8">
-        <v>7.89176684946478</v>
+        <v>23.79245</v>
       </c>
       <c r="O8">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="P8">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="Q8">
-        <v>30.38031564080914</v>
+        <v>30.68956930954445</v>
       </c>
       <c r="R8">
-        <v>30.38031564080914</v>
+        <v>276.2061237859</v>
       </c>
       <c r="S8">
-        <v>0.2017365661058542</v>
+        <v>0.1883623386142033</v>
       </c>
       <c r="T8">
-        <v>0.2017365661058542</v>
+        <v>0.1883623386142034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H9">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I9">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J9">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.3237095875727</v>
+        <v>4.358860666666668</v>
       </c>
       <c r="N9">
-        <v>4.3237095875727</v>
+        <v>13.076582</v>
       </c>
       <c r="O9">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="P9">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="Q9">
-        <v>16.64464555469728</v>
+        <v>16.86731167328045</v>
       </c>
       <c r="R9">
-        <v>16.64464555469728</v>
+        <v>151.805805059524</v>
       </c>
       <c r="S9">
-        <v>0.1105266211830665</v>
+        <v>0.1035259322432283</v>
       </c>
       <c r="T9">
-        <v>0.1105266211830665</v>
+        <v>0.1035259322432283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H10">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I10">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J10">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.08475295147871</v>
+        <v>5.253011333333333</v>
       </c>
       <c r="N10">
-        <v>5.08475295147871</v>
+        <v>15.759034</v>
       </c>
       <c r="O10">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="P10">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="Q10">
-        <v>19.57437448015024</v>
+        <v>20.32737133815422</v>
       </c>
       <c r="R10">
-        <v>19.57437448015024</v>
+        <v>182.946342043388</v>
       </c>
       <c r="S10">
-        <v>0.1299811080959</v>
+        <v>0.1247626242165369</v>
       </c>
       <c r="T10">
-        <v>0.1299811080959</v>
+        <v>0.1247626242165369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H11">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I11">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J11">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.977534880105655</v>
+        <v>1.035612</v>
       </c>
       <c r="N11">
-        <v>0.977534880105655</v>
+        <v>3.106836</v>
       </c>
       <c r="O11">
-        <v>0.04468066844371075</v>
+        <v>0.04666770351444832</v>
       </c>
       <c r="P11">
-        <v>0.04468066844371075</v>
+        <v>0.04666770351444833</v>
       </c>
       <c r="Q11">
-        <v>3.763139329125571</v>
+        <v>4.007467022328</v>
       </c>
       <c r="R11">
-        <v>3.763139329125571</v>
+        <v>36.067203200952</v>
       </c>
       <c r="S11">
-        <v>0.02498864116526544</v>
+        <v>0.02459649572241602</v>
       </c>
       <c r="T11">
-        <v>0.02498864116526544</v>
+        <v>0.02459649572241603</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.59086508686868</v>
+        <v>0.104904</v>
       </c>
       <c r="H12">
-        <v>1.59086508686868</v>
+        <v>0.314712</v>
       </c>
       <c r="I12">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="J12">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.60048675479705</v>
+        <v>3.612892</v>
       </c>
       <c r="N12">
-        <v>3.60048675479705</v>
+        <v>10.838676</v>
       </c>
       <c r="O12">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="P12">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="Q12">
-        <v>5.727888673939741</v>
+        <v>0.379006822368</v>
       </c>
       <c r="R12">
-        <v>5.727888673939741</v>
+        <v>3.411061401312</v>
       </c>
       <c r="S12">
-        <v>0.03803530568211181</v>
+        <v>0.002326217441890654</v>
       </c>
       <c r="T12">
-        <v>0.03803530568211181</v>
+        <v>0.002326217441890655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.59086508686868</v>
+        <v>0.104904</v>
       </c>
       <c r="H13">
-        <v>1.59086508686868</v>
+        <v>0.314712</v>
       </c>
       <c r="I13">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="J13">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.89176684946478</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N13">
-        <v>7.89176684946478</v>
+        <v>23.79245</v>
       </c>
       <c r="O13">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="P13">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="Q13">
-        <v>12.55473635452116</v>
+        <v>0.8319743916000001</v>
       </c>
       <c r="R13">
-        <v>12.55473635452116</v>
+        <v>7.487769524400001</v>
       </c>
       <c r="S13">
-        <v>0.0833681068515051</v>
+        <v>0.005106381275287803</v>
       </c>
       <c r="T13">
-        <v>0.0833681068515051</v>
+        <v>0.005106381275287805</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.59086508686868</v>
+        <v>0.104904</v>
       </c>
       <c r="H14">
-        <v>1.59086508686868</v>
+        <v>0.314712</v>
       </c>
       <c r="I14">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="J14">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.3237095875727</v>
+        <v>4.358860666666668</v>
       </c>
       <c r="N14">
-        <v>4.3237095875727</v>
+        <v>13.076582</v>
       </c>
       <c r="O14">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="P14">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="Q14">
-        <v>6.878438628628787</v>
+        <v>0.4572619193760001</v>
       </c>
       <c r="R14">
-        <v>6.878438628628787</v>
+        <v>4.115357274384</v>
       </c>
       <c r="S14">
-        <v>0.04567538420323256</v>
+        <v>0.002806521122018352</v>
       </c>
       <c r="T14">
-        <v>0.04567538420323256</v>
+        <v>0.002806521122018353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.59086508686868</v>
+        <v>0.104904</v>
       </c>
       <c r="H15">
-        <v>1.59086508686868</v>
+        <v>0.314712</v>
       </c>
       <c r="I15">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="J15">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.08475295147871</v>
+        <v>5.253011333333333</v>
       </c>
       <c r="N15">
-        <v>5.08475295147871</v>
+        <v>15.759034</v>
       </c>
       <c r="O15">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="P15">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="Q15">
-        <v>8.089155945859956</v>
+        <v>0.551061900912</v>
       </c>
       <c r="R15">
-        <v>8.089155945859956</v>
+        <v>4.959557108208</v>
       </c>
       <c r="S15">
-        <v>0.05371499633204856</v>
+        <v>0.003382234117723221</v>
       </c>
       <c r="T15">
-        <v>0.05371499633204856</v>
+        <v>0.003382234117723221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.104904</v>
+      </c>
+      <c r="H16">
+        <v>0.314712</v>
+      </c>
+      <c r="I16">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="J16">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.035612</v>
+      </c>
+      <c r="N16">
+        <v>3.106836</v>
+      </c>
+      <c r="O16">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P16">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q16">
+        <v>0.108639841248</v>
+      </c>
+      <c r="R16">
+        <v>0.9777585712319999</v>
+      </c>
+      <c r="S16">
+        <v>0.00066679510415237</v>
+      </c>
+      <c r="T16">
+        <v>0.0006667951041523702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.192776</v>
+      </c>
+      <c r="H17">
+        <v>0.578328</v>
+      </c>
+      <c r="I17">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J17">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.612892</v>
+      </c>
+      <c r="N17">
+        <v>10.838676</v>
+      </c>
+      <c r="O17">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="P17">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="Q17">
+        <v>0.6964788681919999</v>
+      </c>
+      <c r="R17">
+        <v>6.268309813727999</v>
+      </c>
+      <c r="S17">
+        <v>0.00427475495288943</v>
+      </c>
+      <c r="T17">
+        <v>0.004274754952889431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.192776</v>
+      </c>
+      <c r="H18">
+        <v>0.578328</v>
+      </c>
+      <c r="I18">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J18">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.930816666666668</v>
+      </c>
+      <c r="N18">
+        <v>23.79245</v>
+      </c>
+      <c r="O18">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="P18">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="Q18">
+        <v>1.528871113733333</v>
+      </c>
+      <c r="R18">
+        <v>13.7598400236</v>
+      </c>
+      <c r="S18">
+        <v>0.009383700876276229</v>
+      </c>
+      <c r="T18">
+        <v>0.009383700876276232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.192776</v>
+      </c>
+      <c r="H19">
+        <v>0.578328</v>
+      </c>
+      <c r="I19">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J19">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.358860666666668</v>
+      </c>
+      <c r="N19">
+        <v>13.076582</v>
+      </c>
+      <c r="O19">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="P19">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="Q19">
+        <v>0.8402837238773334</v>
+      </c>
+      <c r="R19">
+        <v>7.562553514896001</v>
+      </c>
+      <c r="S19">
+        <v>0.005157381184875789</v>
+      </c>
+      <c r="T19">
+        <v>0.00515738118487579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.192776</v>
+      </c>
+      <c r="H20">
+        <v>0.578328</v>
+      </c>
+      <c r="I20">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J20">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.253011333333333</v>
+      </c>
+      <c r="N20">
+        <v>15.759034</v>
+      </c>
+      <c r="O20">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="P20">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="Q20">
+        <v>1.012654512794666</v>
+      </c>
+      <c r="R20">
+        <v>9.113890615151998</v>
+      </c>
+      <c r="S20">
+        <v>0.006215335585661287</v>
+      </c>
+      <c r="T20">
+        <v>0.006215335585661287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.192776</v>
+      </c>
+      <c r="H21">
+        <v>0.578328</v>
+      </c>
+      <c r="I21">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J21">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.035612</v>
+      </c>
+      <c r="N21">
+        <v>3.106836</v>
+      </c>
+      <c r="O21">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P21">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q21">
+        <v>0.199641138912</v>
+      </c>
+      <c r="R21">
+        <v>1.796770250208</v>
+      </c>
+      <c r="S21">
+        <v>0.001225330711870637</v>
+      </c>
+      <c r="T21">
+        <v>0.001225330711870637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H22">
+        <v>5.087078</v>
+      </c>
+      <c r="I22">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J22">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.612892</v>
+      </c>
+      <c r="N22">
+        <v>10.838676</v>
+      </c>
+      <c r="O22">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="P22">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="Q22">
+        <v>6.126354469858667</v>
+      </c>
+      <c r="R22">
+        <v>55.137190228728</v>
+      </c>
+      <c r="S22">
+        <v>0.037601520030562</v>
+      </c>
+      <c r="T22">
+        <v>0.037601520030562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H23">
+        <v>5.087078</v>
+      </c>
+      <c r="I23">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J23">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.930816666666668</v>
+      </c>
+      <c r="N23">
+        <v>23.79245</v>
+      </c>
+      <c r="O23">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="P23">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="Q23">
+        <v>13.44822766234445</v>
+      </c>
+      <c r="R23">
+        <v>121.0340489611</v>
+      </c>
+      <c r="S23">
+        <v>0.08254073516462204</v>
+      </c>
+      <c r="T23">
+        <v>0.08254073516462206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.59086508686868</v>
-      </c>
-      <c r="H16">
-        <v>1.59086508686868</v>
-      </c>
-      <c r="I16">
-        <v>0.2311204073607595</v>
-      </c>
-      <c r="J16">
-        <v>0.2311204073607595</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.977534880105655</v>
-      </c>
-      <c r="N16">
-        <v>0.977534880105655</v>
-      </c>
-      <c r="O16">
-        <v>0.04468066844371075</v>
-      </c>
-      <c r="P16">
-        <v>0.04468066844371075</v>
-      </c>
-      <c r="Q16">
-        <v>1.555126111956448</v>
-      </c>
-      <c r="R16">
-        <v>1.555126111956448</v>
-      </c>
-      <c r="S16">
-        <v>0.01032661429186146</v>
-      </c>
-      <c r="T16">
-        <v>0.01032661429186146</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H24">
+        <v>5.087078</v>
+      </c>
+      <c r="I24">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J24">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.358860666666668</v>
+      </c>
+      <c r="N24">
+        <v>13.076582</v>
+      </c>
+      <c r="O24">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="P24">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="Q24">
+        <v>7.391288067488446</v>
+      </c>
+      <c r="R24">
+        <v>66.52159260739602</v>
+      </c>
+      <c r="S24">
+        <v>0.04536526048055008</v>
+      </c>
+      <c r="T24">
+        <v>0.04536526048055008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H25">
+        <v>5.087078</v>
+      </c>
+      <c r="I25">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J25">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.253011333333333</v>
+      </c>
+      <c r="N25">
+        <v>15.759034</v>
+      </c>
+      <c r="O25">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="P25">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="Q25">
+        <v>8.907492795850223</v>
+      </c>
+      <c r="R25">
+        <v>80.167435162652</v>
+      </c>
+      <c r="S25">
+        <v>0.05467121930882587</v>
+      </c>
+      <c r="T25">
+        <v>0.05467121930882588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H26">
+        <v>5.087078</v>
+      </c>
+      <c r="I26">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J26">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.035612</v>
+      </c>
+      <c r="N26">
+        <v>3.106836</v>
+      </c>
+      <c r="O26">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P26">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q26">
+        <v>1.756079673912</v>
+      </c>
+      <c r="R26">
+        <v>15.804717065208</v>
+      </c>
+      <c r="S26">
+        <v>0.01077823122359882</v>
+      </c>
+      <c r="T26">
+        <v>0.01077823122359882</v>
       </c>
     </row>
   </sheetData>
